--- a/data/trans_bre/LAWTONB_2R2-Clase-trans_bre.xlsx
+++ b/data/trans_bre/LAWTONB_2R2-Clase-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,02; 47,35</t>
+          <t>5,51; 46,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-24,84; 15,55</t>
+          <t>-24,18; 14,59</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 35,29</t>
+          <t>-0,17; 38,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,1; 22,81</t>
+          <t>2,93; 21,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>12,9; 412,39</t>
+          <t>11,59; 352,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 192,15</t>
+          <t>-100,0; 187,73</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-23,45; 583,07</t>
+          <t>-16,61; 650,49</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>14,23; 264,76</t>
+          <t>15,93; 250,87</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-12,98; 38,87</t>
+          <t>-14,47; 35,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,36; 58,2</t>
+          <t>5,01; 56,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 54,16</t>
+          <t>-1,8; 54,08</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,42; 24,39</t>
+          <t>1,62; 25,12</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-53,87; 249,89</t>
+          <t>-58,24; 251,41</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,28; 691,11</t>
+          <t>26,35; 760,97</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-17,26; 381,85</t>
+          <t>-5,34; 381,18</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,03; 185,3</t>
+          <t>7,4; 194,31</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,97; 31,25</t>
+          <t>-11,83; 31,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 27,77</t>
+          <t>-1,76; 28,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,64; 37,64</t>
+          <t>7,49; 39,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,55; 33,89</t>
+          <t>11,86; 33,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-39,26; 161,17</t>
+          <t>-41,86; 152,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-12,61; 166,9</t>
+          <t>-8,79; 169,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>26,03; 362,13</t>
+          <t>41,55; 436,84</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>41,56; 224,85</t>
+          <t>49,97; 220,17</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-10,36; 10,49</t>
+          <t>-11,04; 12,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 24,21</t>
+          <t>-4,76; 23,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,2; 26,93</t>
+          <t>2,21; 25,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-35,16; 0,31</t>
+          <t>-33,39; 0,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-34,4; 41,02</t>
+          <t>-35,98; 48,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-12,46; 92,23</t>
+          <t>-16,56; 86,05</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,16; 148,07</t>
+          <t>7,17; 142,63</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-90,32; 1,24</t>
+          <t>-91,16; 2,33</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,77; 23,88</t>
+          <t>-10,76; 22,47</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 21,12</t>
+          <t>-2,58; 22,25</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,68; 12,03</t>
+          <t>-10,22; 12,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,09; 22,32</t>
+          <t>4,53; 22,83</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-17,8; 114,93</t>
+          <t>-25,42; 104,67</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 80,47</t>
+          <t>-6,37; 82,47</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-25,23; 42,44</t>
+          <t>-26,57; 42,21</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>10,06; 81,04</t>
+          <t>11,05; 81,67</t>
         </is>
       </c>
     </row>
@@ -1168,12 +1168,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-65,32; 36,0</t>
+          <t>-64,55; 36,41</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>32,74; 41,96</t>
+          <t>32,07; 42,22</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-54,07; 27,09</t>
+          <t>-53,81; 25,03</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-54,07; 159,23</t>
+          <t>-53,8; 136,22</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,67; 14,02</t>
+          <t>2,42; 13,14</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,24; 17,03</t>
+          <t>5,9; 17,27</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>9,8; 19,03</t>
+          <t>8,98; 19,42</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,94; 16,93</t>
+          <t>-6,78; 17,4</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>8,3; 59,08</t>
+          <t>8,07; 55,29</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>21,21; 73,48</t>
+          <t>18,9; 70,26</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>41,83; 100,83</t>
+          <t>37,89; 102,78</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-30,36; 68,66</t>
+          <t>-26,18; 71,26</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/LAWTONB_2R2-Clase-trans_bre.xlsx
+++ b/data/trans_bre/LAWTONB_2R2-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
